--- a/Carteira_usa.xlsx
+++ b/Carteira_usa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6bb4f777028a843/Python/MeuProjeto/Projetos/investimentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6bb4f777028a843/Python/MeuProjeto/Projetos/dash_investimentos/Resumo_Investimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_70D8CAB9CE4E4DF7E942280B10238494827EAEC5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC2BB9F-0D86-46B5-9500-CC4A47B2840C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_1A10C8B52C4E4DF7E94228C4B88984B69CD0F879" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE5E4C26-C093-4B1D-BEE3-813F425A11E5}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-3264" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ativos</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>Qtde</t>
   </si>
   <si>
@@ -37,10 +34,13 @@
     <t>BRK-A</t>
   </si>
   <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
     <t>LAND</t>
   </si>
   <si>
-    <t>NFLX</t>
+    <t>MSFT</t>
   </si>
   <si>
     <t>PG</t>
@@ -52,20 +52,19 @@
     <t>WPC</t>
   </si>
   <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>ValorDol</t>
+  </si>
+  <si>
+    <t>ValorReal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,13 +75,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -116,23 +115,21 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,107 +436,121 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="1">
         <v>16.123899999999999</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="C2" s="1">
         <v>4.6610000000000002E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D2" s="1">
+        <v>17.59</v>
+      </c>
+      <c r="E2" s="1">
+        <v>61.152799999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="G2" s="1">
+        <v>14.325699999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>24.012799999999999</v>
+      </c>
+      <c r="I2" s="1">
+        <v>17.978999999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>16.966275379999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
-        <v>17.59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>61.152799999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9.1262000000000008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>14.325699999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
-        <v>24.012799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>17.978999999999999</v>
-      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
